--- a/data/raw-data/animal_cases.xlsx
+++ b/data/raw-data/animal_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewruiz/MADA_course/RUIZ-MADA-project/data/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6DCDDF-2605-674F-9440-6018EDD25782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587BBBF-02A2-F547-A09E-360CE9364C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39920" yWindow="1940" windowWidth="26040" windowHeight="14940" xr2:uid="{ED7A579A-4698-0441-8CAB-6E33B21B0F28}"/>
+    <workbookView xWindow="13840" yWindow="1880" windowWidth="26040" windowHeight="14940" xr2:uid="{ED7A579A-4698-0441-8CAB-6E33B21B0F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>date_onset</t>
   </si>
@@ -59,9 +59,6 @@
     <t>virus</t>
   </si>
   <si>
-    <t>eee</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Bernardston</t>
   </si>
   <si>
-    <t>wnv</t>
-  </si>
-  <si>
     <t>Granby</t>
   </si>
   <si>
@@ -144,19 +138,70 @@
   </si>
   <si>
     <t>Hampshire</t>
+  </si>
+  <si>
+    <t>Horse </t>
+  </si>
+  <si>
+    <t>WNV </t>
+  </si>
+  <si>
+    <t>Hampden</t>
+  </si>
+  <si>
+    <t>WNV</t>
+  </si>
+  <si>
+    <t>Essex </t>
+  </si>
+  <si>
+    <t>EEE </t>
+  </si>
+  <si>
+    <t>Hampshire </t>
+  </si>
+  <si>
+    <t>Plymouth </t>
+  </si>
+  <si>
+    <t>Alpaca </t>
+  </si>
+  <si>
+    <t>Worchester </t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>Bristol </t>
+  </si>
+  <si>
+    <t>Worcester </t>
+  </si>
+  <si>
+    <t>Middlesex </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,10 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,42 +564,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DFDF1C-E79D-954C-B589-551C74F2FDF3}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>41860</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2014</v>
       </c>
       <c r="C2" t="s">
@@ -562,17 +610,17 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>41917</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2014</v>
       </c>
       <c r="C3" t="s">
@@ -582,262 +630,538 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2018</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>43688</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>43701</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>43704</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>41121</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>41144</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>41133</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>41175</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>41152</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>41131</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>41145</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>41153</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>41158</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>41198</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>41528</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43688</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43699</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43700</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43701</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43693</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43699</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43704</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43700</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43735</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>41543</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>41480</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>41488</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>41516</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>41535</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
